--- a/outlier_detection/DBSCAN/DBSCAN_df_interarrivo.xlsx
+++ b/outlier_detection/DBSCAN/DBSCAN_df_interarrivo.xlsx
@@ -650,7 +650,7 @@
         <v>23801</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>23801</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>23801</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>23801</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>23801</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>23801</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>23895</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>23982</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>23982</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>23982</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>24048</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>24048</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>24256</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>24256</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>24256</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>24256</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>24256</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>24432</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>24432</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>24667</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>24667</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>24821</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>24821</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>24821</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>24821</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>25111</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>25112</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>25112</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>25112</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>25170</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>25170</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>25170</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>25170</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>25389</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>25389</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>25393</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>25393</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>25400</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>25400</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>25400</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>25400</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>25400</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>25400</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>25400</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>25400</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>25400</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>25400</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>25400</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>25400</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>25400</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>25400</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>25400</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>25400</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>25400</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>25400</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>25400</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>25400</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>25400</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>25400</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>25400</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>25400</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>25400</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>25961</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>25961</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>25961</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>25961</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>25961</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>25961</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>26354</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>26354</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>26354</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>26527</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>26641</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>26641</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>26641</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>26715</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>26715</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>26715</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>26715</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>26715</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>26715</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>26715</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>26715</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>26715</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>26745</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>26745</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>26823</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>27002</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>27092</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>27092</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>27092</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>27336</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>27336</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>27336</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>27402</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>27402</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>27402</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>27557</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>27557</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>27557</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>27557</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>27557</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>27557</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>27557</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>27557</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>27557</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>27791</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>27791</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>27791</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>27791</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>27791</v>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>27791</v>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>27791</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>27972</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>28068</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>28068</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>28068</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>28068</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>28077</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>28077</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>28077</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>28387</v>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>28387</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>28387</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>28474</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>28474</v>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>28624</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>28624</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>28624</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
